--- a/bug/bug002_1_1.xlsx
+++ b/bug/bug002_1_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在找回密码界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>填入正确账号，请求发送验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,14 @@
   </si>
   <si>
     <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +481,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -537,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -572,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -589,13 +593,13 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5">
